--- a/biology/Zoologie/Cyrestis_telamon/Cyrestis_telamon.xlsx
+++ b/biology/Zoologie/Cyrestis_telamon/Cyrestis_telamon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrestis telamon est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Cyrestinae et au genre Cyrestis.
 </t>
@@ -511,82 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrestis telamon a été nommé par Carl von Linné en 1758[1].
-Noms vernaculaire
-Il est nommé Map en anglais, Mappemonde en français.
-Sous-espèces
-Cyrestis telamon telamon
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis telamon a été nommé par Carl von Linné en 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé Map en anglais, Mappemonde en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis telamon telamon
 Cyrestis telamon buruensis Martin; présent à Buru.
 Cyrestis telamon obianus Martin; présent à Obi.
 Cyrestis telamon obscuratus Martin;
-Cyrestis telamon obscurissimus Martin[1].
+Cyrestis telamon obscurissimus Martin.
 Cyrestis whitmei Butler est considéré par certains comme une sous-espèce de Cyrestis achates, Cyrestis achates whitmei
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cyrestis_telamon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
-Le revers présente la même ornementation.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cyrestis_telamon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae.
 </t>
         </is>
       </c>
@@ -612,16 +632,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
+Le revers présente la même ornementation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent aux Moluques[1]. 
-Biotope
-Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent aux Moluques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_telamon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
